--- a/package_005/cases.xlsx
+++ b/package_005/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11745" windowWidth="16545"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10425" windowWidth="9840"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,9 +34,106 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -49,21 +146,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -73,45 +155,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,54 +170,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,8 +412,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,8 +421,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,6 +459,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -437,45 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -484,10 +484,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -496,133 +496,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -630,10 +630,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -982,16 +982,17 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="52.25"/>
-    <col customWidth="1" max="4" min="4" style="2" width="64.875"/>
-    <col customWidth="1" max="5" min="5" style="2" width="10.375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="12.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="30.5"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24"/>
+    <col customWidth="1" max="4" min="4" style="1" width="64.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="10.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1007,7 +1008,7 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>beizhu1</t>
+          <t>case_name</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
@@ -1037,20 +1038,20 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
+          <t>"正常账号july401"</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "注册成功"}</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t>"july401"</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 1, "msg": "注册成功"}</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>"july401"</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1067,20 +1068,20 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
+          <t>"正常账号july402"</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "注册成功"}</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
           <t>"july402"</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 1, "msg": "注册成功"}</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>"july402"</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1097,20 +1098,20 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
+          <t>"注册重复账号python18"</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '该账户已存在'}</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>"july403"</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '该账户已存在'}</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>"july403"</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1127,20 +1128,20 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
+          <t>"注册重复账号july401"</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '该账户已存在'}</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>"july404"</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '该账户已存在'}</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>"july404"</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1157,20 +1158,20 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
+          <t>"两次密码不一致1"</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "两次密码不一致"}</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>"july405"</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "两次密码不一致"}</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>"july405"</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1187,20 +1188,20 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
+          <t>"两次密码不一致2"</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "两次密码不一致"}</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>"july406"</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "两次密码不一致"}</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>"july406"</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1217,20 +1218,20 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
+          <t>"密码长度低于6位"</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>"july407"</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>"july407"</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1247,20 +1248,20 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
+          <t>"密码长度高于18位"</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>"july408"</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>"july408"</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -1277,22 +1278,22 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
+          <t>"账号长度低于6位"</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "注册成功"}</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>"july409"</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>"july409"</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>passed</t>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -1307,20 +1308,20 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
+          <t>"账号长度高于18位"</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>"july410"</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>"july410"</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
